--- a/第二反復/計画/WBSガントチャート_LV50(反復２).xlsx
+++ b/第二反復/計画/WBSガントチャート_LV50(反復２).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11624EAA-BE06-4379-BFCC-5481C0B32C06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DB6D74-324F-496D-9F70-70FD72B9ACBD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3342,10 +3342,10 @@
   <dimension ref="A1:Q113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N66" sqref="N66"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -3544,7 +3544,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="47">
         <f>SUM(K8,K44,K60,K78,K86,K100)</f>
-        <v>30.25</v>
+        <v>33.75</v>
       </c>
       <c r="L6" s="47">
         <f t="shared" ref="L6:P6" si="1">SUM(M8,M24,M44,M60,M78,M86)</f>
@@ -3552,11 +3552,11 @@
       </c>
       <c r="M6" s="47">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="N6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(N8,N24,N44,N60,N78,N86)</f>
+        <v>14</v>
       </c>
       <c r="O6" s="47">
         <f t="shared" si="1"/>
@@ -5285,7 +5285,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="L60" s="36">
         <f t="shared" ref="L60:Q60" si="13">SUMPRODUCT((MOD(ROW(L$61:L$76),2)=0)*L$61:L$76)</f>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="N60" s="36">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="O60" s="36">
         <f t="shared" si="13"/>
@@ -5720,11 +5720,14 @@
       </c>
       <c r="K74" s="10">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L74" s="32"/>
       <c r="M74" s="32"/>
-      <c r="N74" s="32"/>
+      <c r="N74" s="32">
+        <f>0.75*4</f>
+        <v>3</v>
+      </c>
       <c r="O74" s="32"/>
       <c r="P74" s="32"/>
       <c r="Q74" s="32"/>
@@ -5783,11 +5786,14 @@
       </c>
       <c r="K76" s="10">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L76" s="44"/>
       <c r="M76" s="44"/>
-      <c r="N76" s="44"/>
+      <c r="N76" s="44">
+        <f>0.5*1</f>
+        <v>0.5</v>
+      </c>
       <c r="O76" s="44"/>
       <c r="P76" s="44"/>
       <c r="Q76" s="44"/>
